--- a/Luban/Configs/Datas/__beans__.xlsx
+++ b/Luban/Configs/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E2C91-6EBF-4E4C-B093-7D19AEF5D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B09111C-A9BD-4D1D-B06A-6DF00B7F7DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2835" windowWidth="25395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7530" yWindow="2685" windowWidth="25395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -77,67 +77,98 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>z</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>mapId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>db.Portal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>传送门</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置X</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置Y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置Z</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>要传送的地图id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>半径</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>toX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送的位置X</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>toY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>toZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送的位置Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送的位置Z</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,28 +248,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -523,7 +557,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,6 +567,7 @@
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -554,13 +589,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -606,52 +641,52 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -659,11 +694,33 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -672,10 +729,16 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
@@ -714,7 +777,7 @@
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Luban/Configs/Datas/__beans__.xlsx
+++ b/Luban/Configs/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B09111C-A9BD-4D1D-B06A-6DF00B7F7DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438ED705-72B5-4072-AFE5-C3B56216E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="2685" windowWidth="25395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -77,91 +77,102 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>z</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>mapId</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>db.Portal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>传送门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>位置X</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>位置Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>位置Z</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>要传送的地图id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>半径</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>toX</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>传送的位置X</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>toY</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>toZ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>传送的位置Y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>传送的位置Z</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,33 +259,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +571,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,13 +603,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -694,8 +708,8 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>30</v>
@@ -708,7 +722,7 @@
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -719,7 +733,7 @@
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -729,14 +743,14 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -777,7 +791,7 @@
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
